--- a/similarities/split_global/harmonic_similarity_timestamps_224.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_224.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,754 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:32.400000', '0:00:44.110000')]</t>
+          <t>('0:02:04.920000', '0:02:08.840000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=32.4']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>schubert-winterreise_91</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['D#:7/C#', 'G#:maj/C', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G:7/F', 'C:maj/E', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:01.302038', '0:00:08.110136')]</t>
+          <t>('0:01:17.300000', '0:01:20.480000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:51.920000', '0:01:55.980000')]</t>
+          <t>('0:00:58.560000', '0:01:02.900000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-47#t=1.302038']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-91#t=77.3</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=111.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=58.56</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
+          <t>isophonics_135</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_14</t>
+          <t>schubert-winterreise_133</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['F#:maj/A#', 'C#:7', 'F#:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['Ab', 'Eb:7', 'Ab']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:17.480000', '0:00:19.720000')]</t>
+          <t>('0:00:00.866546', '0:00:12.917702')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.090000', '0:00:20.170000')]</t>
+          <t>('0:01:01.600000', '0:01:03.840000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=17.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-135#t=0.866546</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-133#t=61.6</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_30</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['Bb', 'F', 'Bb'], ['Bb', 'F:7', 'Bb']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:00.460000', '0:00:05.060000'), ('0:00:12.510000', '0:00:13.910000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:12.720000'), ('0:00:00.600000', '0:00:09.940000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46', 'https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=12.51']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=0.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_67</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>schubert-winterreise_215</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:7', 'F', 'C:7']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:24.120000', '0:00:27')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:30.500000', '0:00:36.380000')]</t>
+          <t>('0:00:15.780000', '0:00:21.280000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-67#t=24.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-215#t=15.78</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_139</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:7/F', 'F#:maj', 'C#:7/F', 'F#:maj']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:34.380000', '0:00:41.200000')]</t>
+          <t>('0:00:00.580000', '0:00:10.180000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:41.060000', '0:00:45.160000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-139#t=34.38']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-167#t=0.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=41.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_46</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_69</t>
+          <t>isophonics_138</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['C:min', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:21.140000', '0:00:27.920000')]</t>
+          <t>('0:00:23.980000', '0:00:29.420000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+          <t>('0:00:01.129708', '0:00:06.125260')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-46#t=21.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=23.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-69#t=42.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_209</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D/3']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'F#']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:09.336000', '0:00:13.342000')]</t>
+          <t>('0:00:03.129454', '0:00:05.822970')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:22.168299', '0:00:27.450839')]</t>
+          <t>('0:02:18.800000', '0:02:25.800000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=9.336']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=3.129454</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=22.168299']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_104</t>
+          <t>schubert-winterreise_99</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj'], ['C:min', 'F:7/A', 'A#:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min', 'F:7/C', 'A#']]</t>
+          <t>['D#:maj', 'G#:maj', 'D#:maj']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:00.240000', '0:00:08.180000'), ('0:00:31.240000', '0:00:37.500000')]</t>
+          <t>('0:01:15.800000', '0:01:19.600000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:04:11.500000', '0:04:17.660000'), ('0:00:38.200000', '0:00:41.060000')]</t>
+          <t>('0:02:07.600000', '0:02:12.400000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=0.24', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-104#t=31.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-99#t=75.8</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=251.5', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=38.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=127.6</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_1</t>
+          <t>isophonics_147</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>['B', 'E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:17.780000')]</t>
+          <t>('0:00:31.172811', '0:00:51.200022')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.720000', '0:00:17.050000')]</t>
+          <t>('0:00:14.033000', '0:00:32.669000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=31.172811</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=14.033</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['E:7', 'A', 'E']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:7', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:55.002834', '0:00:59.124376')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:07.284457', '0:00:20.438561')]</t>
+          <t>('0:00:42.620000', '0:00:45.060000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-224#t=55.002834</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-79#t=7.284457']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=42.62</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_57</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:7/G', 'D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['D:7', 'G', 'C', 'G']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:58.940000', '0:01:07.080000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:57.401473', '0:01:02.625963')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=58.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-57#t=57.401473']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_82</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>schubert-winterreise_27</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:03.101913', '0:00:07.754783')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:01:02.480000', '0:01:04.920000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-27#t=62.48</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_75</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:maj', 'A#:7', 'D#:maj'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min'], ['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:42.080000', '0:00:57.880000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:00:45.720000', '0:00:49.900000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:14.620000', '0:00:22.040000'), ('0:04:13.840000', '0:04:19.880000'), ('0:00:25.800000', '0:00:31.820000')]</t>
+          <t>('0:00:00.340000', '0:00:04.840000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=42.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-75#t=45.72</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=14.62', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=253.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=25.8']</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=0.34</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_51</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_43</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C#:hdim7/B', 'B:min', 'C#:hdim7/B', 'B:min']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:01:14.879000', '0:01:25.949000')]</t>
+          <t>('0:00:55.820000', '0:01:04.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:16.020000', '0:00:22.500000')]</t>
+          <t>('0:00:07.420000', '0:00:27.640000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=74.879']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-51#t=55.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=16.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=7.42</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
